--- a/downloads/notebooks/data/Blogsummary.xlsx
+++ b/downloads/notebooks/data/Blogsummary.xlsx
@@ -38,6 +38,9 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Summary</t>
+  </si>
+  <si>
     <t>Data Validation for Financial Analysis</t>
   </si>
   <si>
@@ -179,18 +182,12 @@
     <t>Blog Title</t>
   </si>
   <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Using Python to read Excel, CSV or TXT files,  filter data, get average, min, max values and save the results to Excel, CSV or TXT files. Also plot the result in Python</t>
   </si>
   <si>
     <t>Achieve Target (Y/N)</t>
   </si>
   <si>
-    <t xml:space="preserve">Challenge </t>
-  </si>
-  <si>
     <t xml:space="preserve">How to know the data is valid? </t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>find job spec</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -701,7 +701,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -710,7 +710,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -719,7 +719,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -728,10 +728,10 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -739,7 +739,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="10"/>
@@ -747,7 +747,7 @@
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
@@ -805,96 +805,96 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -911,65 +911,65 @@
     </row>
     <row r="15" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -977,14 +977,14 @@
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -993,14 +993,14 @@
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1009,14 +1009,14 @@
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1025,14 +1025,14 @@
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1041,12 +1041,12 @@
     </row>
     <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1055,12 +1055,12 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1069,12 +1069,12 @@
     </row>
     <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1083,12 +1083,12 @@
     </row>
     <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>

--- a/downloads/notebooks/data/Blogsummary.xlsx
+++ b/downloads/notebooks/data/Blogsummary.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Blog Summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Blog Summary'!$A$8:$D$25</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -663,10 +666,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,9 +681,10 @@
     <col min="2" max="2" width="34.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="43.5703125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="28" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1097,6 +1104,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>